--- a/public/EJECUCION_PRESUPUESTAL_DE_INGRESO_20210131.xlsx
+++ b/public/EJECUCION_PRESUPUESTAL_DE_INGRESO_20210131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABIOROJAS\Downloads\yopal-testing\examples-dicc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.rojas\code\produccion\csv-analyzer\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B1D638-2D21-4FD8-A104-EABF0F9C464A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1AC0FC-CB33-44E1-BA42-384B179244E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D573EB8E-B7AA-43EF-8620-04F991374615}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21432" windowHeight="11520" xr2:uid="{D573EB8E-B7AA-43EF-8620-04F991374615}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Anio_reporte</t>
   </si>
@@ -72,12 +63,6 @@
     <t>Reducciones_Acumuladas</t>
   </si>
   <si>
-    <t>Creditos</t>
-  </si>
-  <si>
-    <t>Contra_creditos</t>
-  </si>
-  <si>
     <t>Apropiacion_definitiva</t>
   </si>
   <si>
@@ -91,9 +76,6 @@
   </si>
   <si>
     <t>Recaudos_Acumulados</t>
-  </si>
-  <si>
-    <t>Porcentaje_Ejecucion</t>
   </si>
   <si>
     <t>Fecha_reporte</t>
@@ -209,7 +191,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,33 +512,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EF44E1-CA1F-4C96-AABB-51C33091A19F}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="24.88671875" customWidth="1"/>
+    <col min="15" max="15" width="23.5546875" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,37 +592,28 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2018</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>9008001258</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="3">
         <v>199988000.34999999</v>
@@ -659,31 +631,22 @@
         <v>199988002.34999999</v>
       </c>
       <c r="M2" s="3">
-        <v>215880316.88</v>
+        <v>215880317.88</v>
       </c>
       <c r="N2" s="3">
-        <v>199988003.34999999</v>
+        <v>199988004.34999999</v>
       </c>
       <c r="O2" s="3">
-        <v>215880317.88</v>
+        <v>215880318.88</v>
       </c>
       <c r="P2" s="3">
-        <v>199988004.34999999</v>
+        <v>199988005.34999999</v>
       </c>
       <c r="Q2" s="3">
-        <v>215880318.88</v>
-      </c>
-      <c r="R2" s="3">
-        <v>199988005.34999999</v>
-      </c>
-      <c r="S2" s="3">
         <v>215880319.88</v>
       </c>
-      <c r="T2" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>26</v>
+      <c r="R2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
